--- a/testdatasample.xlsx
+++ b/testdatasample.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>no</t>
   </si>
@@ -37,13 +38,34 @@
   </si>
   <si>
     <t>xyzzzz</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>suga</t>
+  </si>
+  <si>
+    <t>abcd123@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz@123</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>paw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +79,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,12 +113,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,7 +417,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +430,14 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -407,12 +446,76 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9344449323</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>